--- a/crystania/checklist.xlsx
+++ b/crystania/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/crystania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60574D-8467-C146-91C5-1674D78873A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E05463-50DC-F745-A3C5-73853767A015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{0061518C-7686-BF4D-A945-D57300B57FED}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{0061518C-7686-BF4D-A945-D57300B57FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -144,6 +144,45 @@
   </si>
   <si>
     <t>RPG Replay Unexplored Legend Crystania</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>dengeki_replay5.jpg</t>
+  </si>
+  <si>
+    <t>RPG Replay Adrift Legend Crystania</t>
+  </si>
+  <si>
+    <t>RPG Replay Ant Emperor Legend Crystania</t>
+  </si>
+  <si>
+    <t>dengeki_replay6.jpg</t>
   </si>
 </sst>
 </file>
@@ -193,9 +232,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,21 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F9FA6-5039-2146-AB9C-BA857AE069EF}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +580,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1992</v>
       </c>
@@ -557,8 +603,12 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1994</v>
       </c>
@@ -574,8 +624,12 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -591,8 +645,12 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -608,8 +666,12 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -625,8 +687,12 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1994</v>
       </c>
@@ -642,74 +708,144 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>1995</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1996</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1998</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1998</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1998</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/crystania/checklist.xlsx
+++ b/crystania/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/crystania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E05463-50DC-F745-A3C5-73853767A015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A905F9AB-61BA-6E40-BC8A-48845CB3DBC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{0061518C-7686-BF4D-A945-D57300B57FED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>year</t>
   </si>
@@ -62,9 +62,6 @@
     <t>RPGリプレイ蟻帝伝説クリスタニア</t>
   </si>
   <si>
-    <t>RPG Replay The Legend of Ant Empire Crystania</t>
-  </si>
-  <si>
     <t>Media Works</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>RPGリプレイ漂流伝説クリスタニア</t>
   </si>
   <si>
-    <t>RPG Replay The Drifting Legend Crystania</t>
-  </si>
-  <si>
     <t>クリスタニアコンパニオン</t>
   </si>
   <si>
@@ -122,15 +116,6 @@
     <t>RPGリプレイ傭兵伝説クリスタニア (上)</t>
   </si>
   <si>
-    <t>dengeki_replay3a.jpg</t>
-  </si>
-  <si>
-    <t>dengeki_replay3b.jpg</t>
-  </si>
-  <si>
-    <t>dengeki_replay4.jpg</t>
-  </si>
-  <si>
     <t>RPGリプレイ 傭兵伝説クリスタニア(下)</t>
   </si>
   <si>
@@ -183,6 +168,69 @@
   </si>
   <si>
     <t>dengeki_replay6.jpg</t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>replay3a.jpg</t>
+  </si>
+  <si>
+    <t>replay3b.jpg</t>
+  </si>
+  <si>
+    <t>replay4.jpg</t>
+  </si>
+  <si>
+    <t>RPG Replay Adrift Legend Crystania Vol. 1</t>
+  </si>
+  <si>
+    <t>RPGリプレイ漂流伝説クリスタニア1</t>
+  </si>
+  <si>
+    <t>RPGリプレイ漂流伝説クリスタニア2</t>
+  </si>
+  <si>
+    <t>RPG Replay Adrift Legend Crystania Vol. 2</t>
+  </si>
+  <si>
+    <t>RPGリプレイ漂流伝説クリスタニア3</t>
+  </si>
+  <si>
+    <t>RPG Replay Adrift Legend Crystania Vol. 3</t>
+  </si>
+  <si>
+    <t>replay2a.jpg</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>RPGリプレイ漂流伝説クリスタニア4</t>
+  </si>
+  <si>
+    <t>RPG Replay Adrift Legend Crystania Vol. 4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>replay2b.jpg</t>
   </si>
 </sst>
 </file>
@@ -550,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F9FA6-5039-2146-AB9C-BA857AE069EF}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,10 +629,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -592,19 +640,19 @@
         <v>1992</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -613,239 +661,297 @@
         <v>1994</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1998</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1998</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1998</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1998</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/crystania/checklist.xlsx
+++ b/crystania/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/crystania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A905F9AB-61BA-6E40-BC8A-48845CB3DBC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{229FB34E-3C96-3147-A256-D6F3363CAAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{0061518C-7686-BF4D-A945-D57300B57FED}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>year</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Media Works</t>
   </si>
   <si>
-    <t>replay1.jpg</t>
-  </si>
-  <si>
-    <t>replay2.jpg</t>
-  </si>
-  <si>
     <t>RPGリプレイ漂流伝説クリスタニア</t>
   </si>
   <si>
@@ -191,46 +185,16 @@
     <t>replay4.jpg</t>
   </si>
   <si>
-    <t>RPG Replay Adrift Legend Crystania Vol. 1</t>
-  </si>
-  <si>
-    <t>RPGリプレイ漂流伝説クリスタニア1</t>
-  </si>
-  <si>
-    <t>RPGリプレイ漂流伝説クリスタニア2</t>
-  </si>
-  <si>
-    <t>RPG Replay Adrift Legend Crystania Vol. 2</t>
-  </si>
-  <si>
-    <t>RPGリプレイ漂流伝説クリスタニア3</t>
-  </si>
-  <si>
-    <t>RPG Replay Adrift Legend Crystania Vol. 3</t>
-  </si>
-  <si>
-    <t>replay2a.jpg</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>RPGリプレイ漂流伝説クリスタニア4</t>
-  </si>
-  <si>
-    <t>RPG Replay Adrift Legend Crystania Vol. 4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>replay2b.jpg</t>
+    <t>guidebook.jpg</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>クリスタニア完全ガイドブック</t>
+  </si>
+  <si>
+    <t>Crystania Complete Guidebook</t>
   </si>
 </sst>
 </file>
@@ -598,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F9FA6-5039-2146-AB9C-BA857AE069EF}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,10 +593,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -640,19 +604,19 @@
         <v>1992</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -661,19 +625,19 @@
         <v>1994</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -682,22 +646,22 @@
         <v>1994</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,22 +669,22 @@
         <v>1995</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -728,22 +692,22 @@
         <v>1996</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -754,203 +718,134 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1998</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1998</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1998</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
         <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/crystania/checklist.xlsx
+++ b/crystania/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/crystania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{229FB34E-3C96-3147-A256-D6F3363CAAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFA5DF1-6DF3-A040-96A4-C0A29822DEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{0061518C-7686-BF4D-A945-D57300B57FED}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>product_code</t>
   </si>
   <si>
-    <t>rulebook</t>
-  </si>
-  <si>
     <t>replay</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Crystania Complete Guidebook</t>
+  </si>
+  <si>
+    <t>box set</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -658,10 +658,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -672,19 +672,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -704,10 +704,10 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -718,19 +718,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -750,10 +750,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -770,13 +770,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -793,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -816,13 +816,13 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -830,22 +830,22 @@
         <v>1999</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/crystania/checklist.xlsx
+++ b/crystania/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/crystania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFA5DF1-6DF3-A040-96A4-C0A29822DEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC1DE1D-9284-F64B-9400-B2DD1269A3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{0061518C-7686-BF4D-A945-D57300B57FED}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>year</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>box set</t>
+  </si>
+  <si>
+    <t>クリスタニアＲＰＧマスタースクリーン</t>
+  </si>
+  <si>
+    <t>Crystania RPG Master Screen</t>
+  </si>
+  <si>
+    <t>master_screen.jpg</t>
   </si>
 </sst>
 </file>
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F9FA6-5039-2146-AB9C-BA857AE069EF}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,114 +655,112 @@
         <v>1994</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -761,22 +768,22 @@
         <v>1998</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -784,22 +791,22 @@
         <v>1998</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -807,44 +814,67 @@
         <v>1998</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>1998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1999</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
